--- a/PowerBoard/schematics/BOM.xlsx
+++ b/PowerBoard/schematics/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Qty</t>
   </si>
@@ -81,9 +81,6 @@
     <t>R-EU_0603</t>
   </si>
   <si>
-    <t>R1, R2, R3, R202</t>
-  </si>
-  <si>
     <t>RESISTOR, European symbol</t>
   </si>
   <si>
@@ -154,6 +151,15 @@
   </si>
   <si>
     <t>LM337</t>
+  </si>
+  <si>
+    <t>1.91k</t>
+  </si>
+  <si>
+    <t>R1, R3</t>
+  </si>
+  <si>
+    <t>R2, R202</t>
   </si>
 </sst>
 </file>
@@ -485,9 +491,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -588,10 +596,10 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -599,13 +607,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -616,16 +624,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -633,16 +641,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -650,16 +658,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -667,16 +675,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -684,16 +692,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -701,16 +709,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -718,13 +726,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -732,16 +740,33 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
